--- a/Compiled_classification_report/Compiled_report.xlsx
+++ b/Compiled_classification_report/Compiled_report.xlsx
@@ -8,17 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\faris\OneDrive\Desktop\Kerja Sawada\FTIR Machine Learning\CodeFTIR\Compiled_classification_report\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B0B23F-0BF9-4C6A-B806-2FDD6A21D78F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60ABC83F-DBD1-4C19-B1E4-F9E68CCFB54B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="DT" sheetId="1" r:id="rId1"/>
-    <sheet name="GBT" sheetId="2" r:id="rId2"/>
-    <sheet name="RF" sheetId="3" r:id="rId3"/>
-    <sheet name="MLP" sheetId="4" r:id="rId4"/>
-    <sheet name="SVM" sheetId="5" r:id="rId5"/>
-    <sheet name="Plot " sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet1" sheetId="7" r:id="rId1"/>
+    <sheet name="DT" sheetId="1" r:id="rId2"/>
+    <sheet name="GBT" sheetId="2" r:id="rId3"/>
+    <sheet name="RF" sheetId="3" r:id="rId4"/>
+    <sheet name="MLP" sheetId="4" r:id="rId5"/>
+    <sheet name="SVM" sheetId="5" r:id="rId6"/>
+    <sheet name="Plot " sheetId="6" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -30,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="21">
   <si>
     <t>weighted avg</t>
   </si>
@@ -60,6 +61,39 @@
   </si>
   <si>
     <t>precision</t>
+  </si>
+  <si>
+    <t>DT</t>
+  </si>
+  <si>
+    <t>GBT</t>
+  </si>
+  <si>
+    <t>RF</t>
+  </si>
+  <si>
+    <t>MLP</t>
+  </si>
+  <si>
+    <t>SVM</t>
+  </si>
+  <si>
+    <t>Model</t>
+  </si>
+  <si>
+    <t>Accuracy</t>
+  </si>
+  <si>
+    <t>Error</t>
+  </si>
+  <si>
+    <t>Precision</t>
+  </si>
+  <si>
+    <t>Recall</t>
+  </si>
+  <si>
+    <t>F-measure</t>
   </si>
 </sst>
 </file>
@@ -91,7 +125,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -127,15 +161,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -148,6 +187,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -164,6 +215,1262 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>ML Model</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Performance</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$22</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>DT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$22:$F$22</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-1AD8-4244-8EB3-A83F658B9566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$23</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GBT</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$23:$F$23</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-1AD8-4244-8EB3-A83F658B9566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$24</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>RF</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$24:$F$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-1AD8-4244-8EB3-A83F658B9566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$25</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>MLP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$25:$F$25</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.42859999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.66669999999999996</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.48149999999999998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-1AD8-4244-8EB3-A83F658B9566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$A$26</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>SVM</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$B$21:$F$21</c:f>
+              <c:strCache>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>Accuracy</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Error</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Precision</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Recall</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>F-measure</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$26:$F$26</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-1AD8-4244-8EB3-A83F658B9566}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="1261702895"/>
+        <c:axId val="1261699535"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="1261702895"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261699535"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1261699535"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="1"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1261702895"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+        <c:majorUnit val="0.2"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>579120</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>274320</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>34290</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B551ECB9-6AAB-A365-F0E7-345E4B760FF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -428,11 +1735,703 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{157D8098-8724-4576-9DA4-071C53614EF1}">
+  <dimension ref="A1:Q26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="P35" sqref="P35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="6" max="6" width="8.21875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="M1" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H2" s="4">
+        <v>1</v>
+      </c>
+      <c r="I2" s="4">
+        <v>1</v>
+      </c>
+      <c r="J2" s="4">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>5</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="N2" s="4">
+        <v>1</v>
+      </c>
+      <c r="O2" s="4">
+        <v>1</v>
+      </c>
+      <c r="P2" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="H3" s="4">
+        <v>1</v>
+      </c>
+      <c r="I3" s="4">
+        <v>1</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>3</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N3" s="4">
+        <v>1</v>
+      </c>
+      <c r="O3" s="4">
+        <v>1</v>
+      </c>
+      <c r="P3" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>1</v>
+      </c>
+      <c r="I4" s="4">
+        <v>1</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="N4" s="4">
+        <v>1</v>
+      </c>
+      <c r="O4" s="4">
+        <v>1</v>
+      </c>
+      <c r="P4" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="H5" s="4">
+        <v>1</v>
+      </c>
+      <c r="I5" s="4">
+        <v>1</v>
+      </c>
+      <c r="J5" s="4">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N5" s="4">
+        <v>1</v>
+      </c>
+      <c r="O5" s="4">
+        <v>1</v>
+      </c>
+      <c r="P5" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>1</v>
+      </c>
+      <c r="I6" s="4">
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>10</v>
+      </c>
+      <c r="M6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <v>1</v>
+      </c>
+      <c r="O6" s="4">
+        <v>1</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="H7" s="4">
+        <v>1</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="4">
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <v>10</v>
+      </c>
+      <c r="M7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N7" s="4">
+        <v>1</v>
+      </c>
+      <c r="O7" s="4">
+        <v>1</v>
+      </c>
+      <c r="P7" s="4">
+        <v>1</v>
+      </c>
+      <c r="Q7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12" s="4">
+        <v>0</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0</v>
+      </c>
+      <c r="E12">
+        <v>5</v>
+      </c>
+      <c r="G12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="H12" s="4">
+        <v>1</v>
+      </c>
+      <c r="I12" s="4">
+        <v>1</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1</v>
+      </c>
+      <c r="K12">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A13" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B13" s="4">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4">
+        <v>1</v>
+      </c>
+      <c r="D13" s="4">
+        <v>1</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="G13" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="H13" s="4">
+        <v>1</v>
+      </c>
+      <c r="I13" s="4">
+        <v>1</v>
+      </c>
+      <c r="J13" s="4">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A14" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B14" s="4">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C14" s="4">
+        <v>1</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="G14" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="H14" s="4">
+        <v>1</v>
+      </c>
+      <c r="I14" s="4">
+        <v>1</v>
+      </c>
+      <c r="J14" s="4">
+        <v>1</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E15">
+        <v>0.5</v>
+      </c>
+      <c r="G15" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="H15" s="4">
+        <v>1</v>
+      </c>
+      <c r="I15" s="4">
+        <v>1</v>
+      </c>
+      <c r="J15" s="4">
+        <v>1</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B16" s="4">
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.48148148148148151</v>
+      </c>
+      <c r="E16">
+        <v>10</v>
+      </c>
+      <c r="G16" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="H16" s="4">
+        <v>1</v>
+      </c>
+      <c r="I16" s="4">
+        <v>1</v>
+      </c>
+      <c r="J16" s="4">
+        <v>1</v>
+      </c>
+      <c r="K16">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="4">
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E17">
+        <v>10</v>
+      </c>
+      <c r="G17" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="H17" s="4">
+        <v>1</v>
+      </c>
+      <c r="I17" s="4">
+        <v>1</v>
+      </c>
+      <c r="J17" s="4">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="C21" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D21" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="F21" s="8" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B22" s="10">
+        <v>1</v>
+      </c>
+      <c r="C22" s="10">
+        <v>0</v>
+      </c>
+      <c r="D22" s="10">
+        <v>1</v>
+      </c>
+      <c r="E22" s="10">
+        <v>1</v>
+      </c>
+      <c r="F22" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="9" t="s">
+        <v>11</v>
+      </c>
+      <c r="B23" s="10">
+        <v>1</v>
+      </c>
+      <c r="C23" s="10">
+        <v>0</v>
+      </c>
+      <c r="D23" s="10">
+        <v>1</v>
+      </c>
+      <c r="E23" s="10">
+        <v>1</v>
+      </c>
+      <c r="F23" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="10">
+        <v>1</v>
+      </c>
+      <c r="C24" s="10">
+        <v>0</v>
+      </c>
+      <c r="D24" s="10">
+        <v>1</v>
+      </c>
+      <c r="E24" s="10">
+        <v>1</v>
+      </c>
+      <c r="F24" s="10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="B25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="C25" s="10">
+        <v>0.5</v>
+      </c>
+      <c r="D25" s="10">
+        <v>0.42859999999999998</v>
+      </c>
+      <c r="E25" s="10">
+        <v>0.66669999999999996</v>
+      </c>
+      <c r="F25" s="10">
+        <v>0.48149999999999998</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="B26" s="10">
+        <v>1</v>
+      </c>
+      <c r="C26" s="10">
+        <v>0</v>
+      </c>
+      <c r="D26" s="10">
+        <v>1</v>
+      </c>
+      <c r="E26" s="10">
+        <v>1</v>
+      </c>
+      <c r="F26" s="10">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -458,13 +2457,13 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2">
@@ -475,13 +2474,13 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3">
@@ -492,13 +2491,13 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4">
@@ -509,13 +2508,13 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5">
@@ -526,13 +2525,13 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6">
@@ -543,13 +2542,13 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7">
@@ -561,12 +2560,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BB707BD8-50EF-413E-B6CE-388D4947A515}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -592,13 +2591,13 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2">
@@ -609,13 +2608,13 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3">
@@ -626,13 +2625,13 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4">
@@ -643,13 +2642,13 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5">
@@ -660,13 +2659,13 @@
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6">
@@ -677,151 +2676,16 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A10EA7-261B-4CD3-90AF-F5E7E11C7F94}">
-  <dimension ref="A1:E7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:D7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="E1" s="3" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
-        <v>1</v>
-      </c>
-      <c r="E2" s="2">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
-        <v>1</v>
-      </c>
-      <c r="E3" s="2">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>1</v>
-      </c>
-      <c r="E4" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
-        <v>1</v>
-      </c>
-      <c r="E5" s="2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="2">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
-        <v>1</v>
-      </c>
-      <c r="E7" s="2">
         <v>10</v>
       </c>
     </row>
@@ -831,11 +2695,11 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92E78B3-4E31-4BE1-8D99-2C9D88BAB2FA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06A10EA7-261B-4CD3-90AF-F5E7E11C7F94}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -861,14 +2725,14 @@
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
-        <v>0</v>
-      </c>
-      <c r="C2" s="6">
-        <v>0</v>
-      </c>
-      <c r="D2" s="6">
-        <v>0</v>
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
+        <v>1</v>
       </c>
       <c r="E2">
         <v>5</v>
@@ -878,13 +2742,13 @@
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3">
@@ -895,14 +2759,14 @@
       <c r="A4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>0.2857142857142857</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
-        <v>0.44444444444444442</v>
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>1</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -912,31 +2776,31 @@
       <c r="A5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="C5" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0.5</v>
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
+        <v>1</v>
       </c>
       <c r="E5">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="B6" s="6">
-        <v>0.42857142857142849</v>
-      </c>
-      <c r="C6" s="6">
-        <v>0.66666666666666663</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0.48148148148148151</v>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
+        <v>1</v>
       </c>
       <c r="E6">
         <v>10</v>
@@ -946,14 +2810,14 @@
       <c r="A7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6">
-        <v>0.3571428571428571</v>
-      </c>
-      <c r="C7" s="6">
-        <v>0.5</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0.3888888888888889</v>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
+        <v>1</v>
       </c>
       <c r="E7">
         <v>10</v>
@@ -965,44 +2829,178 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B92E78B3-4E31-4BE1-8D99-2C9D88BAB2FA}">
+  <dimension ref="A1:E7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:E7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="20.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4">
+        <v>0</v>
+      </c>
+      <c r="C2" s="4">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
+        <v>1</v>
+      </c>
+      <c r="E3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="4">
+        <v>0.2857142857142857</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.44444444444444442</v>
+      </c>
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D5" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="E5">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>0.42857142857142849</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.66666666666666663</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.48148148148148151</v>
+      </c>
+      <c r="E6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="4">
+        <v>0.3571428571428571</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.5</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.3888888888888889</v>
+      </c>
+      <c r="E7">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{248F6BFA-7B0E-45E5-A976-10A8E572E0E3}">
   <dimension ref="A1:E7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection sqref="A1:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="20.5546875" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.5546875" style="6" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="7"/>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="5"/>
+      <c r="B1" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="6">
-        <v>1</v>
-      </c>
-      <c r="C2" s="6">
-        <v>1</v>
-      </c>
-      <c r="D2" s="6">
+      <c r="B2" s="4">
+        <v>1</v>
+      </c>
+      <c r="C2" s="4">
+        <v>1</v>
+      </c>
+      <c r="D2" s="4">
         <v>1</v>
       </c>
       <c r="E2">
@@ -1010,16 +3008,16 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="6">
-        <v>1</v>
-      </c>
-      <c r="C3" s="6">
-        <v>1</v>
-      </c>
-      <c r="D3" s="6">
+      <c r="B3" s="4">
+        <v>1</v>
+      </c>
+      <c r="C3" s="4">
+        <v>1</v>
+      </c>
+      <c r="D3" s="4">
         <v>1</v>
       </c>
       <c r="E3">
@@ -1027,16 +3025,16 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="B4" s="6">
-        <v>1</v>
-      </c>
-      <c r="C4" s="6">
-        <v>1</v>
-      </c>
-      <c r="D4" s="6">
+      <c r="B4" s="4">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4">
+        <v>1</v>
+      </c>
+      <c r="D4" s="4">
         <v>1</v>
       </c>
       <c r="E4">
@@ -1044,16 +3042,16 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="6">
-        <v>1</v>
-      </c>
-      <c r="C5" s="6">
-        <v>1</v>
-      </c>
-      <c r="D5" s="6">
+      <c r="B5" s="4">
+        <v>1</v>
+      </c>
+      <c r="C5" s="4">
+        <v>1</v>
+      </c>
+      <c r="D5" s="4">
         <v>1</v>
       </c>
       <c r="E5">
@@ -1061,16 +3059,16 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B6" s="6">
-        <v>1</v>
-      </c>
-      <c r="C6" s="6">
-        <v>1</v>
-      </c>
-      <c r="D6" s="6">
+      <c r="A6" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="B6" s="4">
+        <v>1</v>
+      </c>
+      <c r="C6" s="4">
+        <v>1</v>
+      </c>
+      <c r="D6" s="4">
         <v>1</v>
       </c>
       <c r="E6">
@@ -1078,16 +3076,16 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B7" s="6">
-        <v>1</v>
-      </c>
-      <c r="C7" s="6">
-        <v>1</v>
-      </c>
-      <c r="D7" s="6">
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="4">
+        <v>1</v>
+      </c>
+      <c r="D7" s="4">
         <v>1</v>
       </c>
       <c r="E7">
@@ -1100,7 +3098,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{505FC51C-1AD0-4CB7-8ED1-32D1A5AFB2B4}">
   <dimension ref="A1"/>
   <sheetViews>
